--- a/data/countryprofile_fig4_alt.xlsx
+++ b/data/countryprofile_fig4_alt.xlsx
@@ -1,49 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\Homedir4\Souzapacheco_T\Projects\Delphine\ro2023-country-pages\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF054D1A-7910-4816-AEF7-30A74F01CB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="845" firstSheet="9" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FIN" sheetId="1" r:id="rId2"/>
-    <sheet name="PRT" sheetId="2" r:id="rId4"/>
-    <sheet name="NZL" sheetId="3" r:id="rId5"/>
-    <sheet name="AUT" sheetId="4" r:id="rId6"/>
-    <sheet name="ESP" sheetId="5" r:id="rId7"/>
-    <sheet name="NLD" sheetId="6" r:id="rId8"/>
-    <sheet name="DEU" sheetId="7" r:id="rId9"/>
-    <sheet name="LVA" sheetId="8" r:id="rId10"/>
-    <sheet name="GRC" sheetId="9" r:id="rId11"/>
-    <sheet name="SVK" sheetId="10" r:id="rId12"/>
-    <sheet name="EST" sheetId="11" r:id="rId13"/>
-    <sheet name="HUN" sheetId="12" r:id="rId14"/>
-    <sheet name="FRA" sheetId="13" r:id="rId15"/>
-    <sheet name="ITA" sheetId="14" r:id="rId16"/>
-    <sheet name="SWE" sheetId="15" r:id="rId17"/>
-    <sheet name="BEL" sheetId="16" r:id="rId18"/>
-    <sheet name="CZE" sheetId="17" r:id="rId19"/>
-    <sheet name="SVN" sheetId="18" r:id="rId20"/>
-    <sheet name="DNK" sheetId="19" r:id="rId21"/>
-    <sheet name="LTU" sheetId="20" r:id="rId22"/>
-    <sheet name="GBR" sheetId="21" r:id="rId23"/>
-    <sheet name="POL" sheetId="22" r:id="rId24"/>
-    <sheet name="AUS" sheetId="23" r:id="rId25"/>
-    <sheet name="CAN" sheetId="24" r:id="rId26"/>
-    <sheet name="CHL" sheetId="25" r:id="rId27"/>
-    <sheet name="IRL" sheetId="26" r:id="rId28"/>
-    <sheet name="MEX" sheetId="27" r:id="rId29"/>
-    <sheet name="NOR" sheetId="28" r:id="rId30"/>
-    <sheet name="CHE" sheetId="29" r:id="rId31"/>
-    <sheet name="TUR" sheetId="30" r:id="rId32"/>
-    <sheet name="USA" sheetId="31" r:id="rId33"/>
+    <sheet name="FIN" sheetId="1" r:id="rId1"/>
+    <sheet name="PRT" sheetId="2" r:id="rId2"/>
+    <sheet name="NZL" sheetId="3" r:id="rId3"/>
+    <sheet name="AUT" sheetId="4" r:id="rId4"/>
+    <sheet name="ESP" sheetId="5" r:id="rId5"/>
+    <sheet name="NLD" sheetId="6" r:id="rId6"/>
+    <sheet name="DEU" sheetId="7" r:id="rId7"/>
+    <sheet name="LVA" sheetId="8" r:id="rId8"/>
+    <sheet name="GRC" sheetId="9" r:id="rId9"/>
+    <sheet name="SVK" sheetId="10" r:id="rId10"/>
+    <sheet name="EST" sheetId="11" r:id="rId11"/>
+    <sheet name="HUN" sheetId="12" r:id="rId12"/>
+    <sheet name="FRA" sheetId="13" r:id="rId13"/>
+    <sheet name="ITA" sheetId="14" r:id="rId14"/>
+    <sheet name="SWE" sheetId="15" r:id="rId15"/>
+    <sheet name="BEL" sheetId="16" r:id="rId16"/>
+    <sheet name="CZE" sheetId="17" r:id="rId17"/>
+    <sheet name="SVN" sheetId="18" r:id="rId18"/>
+    <sheet name="DNK" sheetId="19" r:id="rId19"/>
+    <sheet name="LTU" sheetId="20" r:id="rId20"/>
+    <sheet name="GBR" sheetId="21" r:id="rId21"/>
+    <sheet name="POL" sheetId="22" r:id="rId22"/>
+    <sheet name="AUS" sheetId="23" r:id="rId23"/>
+    <sheet name="CAN" sheetId="24" r:id="rId24"/>
+    <sheet name="CHL" sheetId="25" r:id="rId25"/>
+    <sheet name="IRL" sheetId="26" r:id="rId26"/>
+    <sheet name="MEX" sheetId="27" r:id="rId27"/>
+    <sheet name="NOR" sheetId="28" r:id="rId28"/>
+    <sheet name="CHE" sheetId="29" r:id="rId29"/>
+    <sheet name="TUR" sheetId="30" r:id="rId30"/>
+    <sheet name="USA" sheetId="31" r:id="rId31"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="837" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="124">
   <si>
     <t>time</t>
   </si>
@@ -159,15 +166,9 @@
     <t>NLD</t>
   </si>
   <si>
-    <t>In Netherlands, between 2001 and 2020, the share of workers in the industrial sector went down in all regions but more so in regions that were already in the lower half of the labour productivity distribution.</t>
-  </si>
-  <si>
     <t>Hence, the evolution of employment shares in the industrial sector widened the labour productivity gap between regions while the opposite was true for tradable services.</t>
   </si>
   <si>
-    <t>Regions where the economic activity shifts towards tradable activities, such as industry and tradable services, tend to grow faster in terms of labour productivity. In Netherlands, between 2001 and 2020, the share of workers in the industrial sector went down in all regions but more so in regions that were already in the lower half of the labour productivity distribution. At the same time, the share of workers in the tradable services sector went up in all regions but more so in regions that used to be in the lower half of the labour productivity distribution. Hence, the evolution of employment shares in the industrial sector widened the labour productivity gap between regions while the opposite was true for tradable services.</t>
-  </si>
-  <si>
     <t>DEU</t>
   </si>
   <si>
@@ -198,12 +199,6 @@
     <t>SVK</t>
   </si>
   <si>
-    <t>In Slovak Republic, between 2001 and 2020, the share of workers in the industrial sector went down in all regions but more so in regions that used to be in the upper half of the labour productivity distribution.</t>
-  </si>
-  <si>
-    <t>Regions where the economic activity shifts towards tradable activities, such as industry and tradable services, tend to grow faster in terms of labour productivity. In Slovak Republic, between 2001 and 2020, the share of workers in the industrial sector went down in all regions but more so in regions that used to be in the upper half of the labour productivity distribution. At the same time, the share of workers in the tradable services sector went up in all regions but more so in regions that were already in the upper half of the labour productivity distribution. Hence, the evolution of employment shares in the tradable services sector widened the labour productivity gap between regions while the opposite was true for the industrial sector.</t>
-  </si>
-  <si>
     <t>EST</t>
   </si>
   <si>
@@ -270,12 +265,6 @@
     <t>CZE</t>
   </si>
   <si>
-    <t>In Czech Republic, between 2001 and 2020, the share of workers in the industrial sector went down in all regions but more so in regions that used to be in the upper half of the labour productivity distribution.</t>
-  </si>
-  <si>
-    <t>Regions where the economic activity shifts towards tradable activities, such as industry and tradable services, tend to grow faster in terms of labour productivity. In Czech Republic, between 2001 and 2020, the share of workers in the industrial sector went down in all regions but more so in regions that used to be in the upper half of the labour productivity distribution. At the same time, the share of workers in the tradable services sector went up in all regions but more so in regions that were already in the upper half of the labour productivity distribution. Hence, the evolution of employment shares in the tradable services sector widened the labour productivity gap between regions while the opposite was true for the industrial sector.</t>
-  </si>
-  <si>
     <t>SVN</t>
   </si>
   <si>
@@ -309,15 +298,9 @@
     <t>GBR</t>
   </si>
   <si>
-    <t>In United Kingdom, between 2004 and 2020, the share of workers in the industrial sector went down in all regions, approximately by the same amount.</t>
-  </si>
-  <si>
     <t>Hence, the evolution of employment shares in the tradable services sector reduced the labour productivity gap between regions.</t>
   </si>
   <si>
-    <t>Regions where the economic activity shifts towards tradable activities, such as industry and tradable services, tend to grow faster in terms of labour productivity. In United Kingdom, between 2004 and 2020, the share of workers in the industrial sector went down in all regions, approximately by the same amount. At the same time, the share of workers in the tradable services sector went up in all regions but more so in regions that used to be in the lower half of the labour productivity distribution. Hence, the evolution of employment shares in the tradable services sector reduced the labour productivity gap between regions.</t>
-  </si>
-  <si>
     <t>POL</t>
   </si>
   <si>
@@ -411,17 +394,41 @@
     <t>USA</t>
   </si>
   <si>
-    <t>In United States, between 2001 and 2020, the share of workers in the industrial sector remained approximately stable across all regions.</t>
-  </si>
-  <si>
-    <t>Regions where the economic activity shifts towards tradable activities, such as industry and tradable services, tend to grow faster in terms of labour productivity. In United States, between 2001 and 2020, the share of workers in the industrial sector remained approximately stable across all regions. At the same time, the share of workers in the tradable services sector went up in all regions, approximately by the same amount.</t>
+    <t>In the Netherlands, between 2001 and 2020, the share of workers in the industrial sector went down in all regions but more so in regions that were already in the lower half of the labour productivity distribution.</t>
+  </si>
+  <si>
+    <t>Regions where the economic activity shifts towards tradable activities, such as industry and tradable services, tend to grow faster in terms of labour productivity. In the Netherlands, between 2001 and 2020, the share of workers in the industrial sector went down in all regions but more so in regions that were already in the lower half of the labour productivity distribution. At the same time, the share of workers in the tradable services sector went up in all regions but more so in regions that used to be in the lower half of the labour productivity distribution. Hence, the evolution of employment shares in the industrial sector widened the labour productivity gap between regions while the opposite was true for tradable services.</t>
+  </si>
+  <si>
+    <t>In the Slovak Republic, between 2001 and 2020, the share of workers in the industrial sector went down in all regions but more so in regions that used to be in the upper half of the labour productivity distribution.</t>
+  </si>
+  <si>
+    <t>Regions where the economic activity shifts towards tradable activities, such as industry and tradable services, tend to grow faster in terms of labour productivity. In the Slovak Republic, between 2001 and 2020, the share of workers in the industrial sector went down in all regions but more so in regions that used to be in the upper half of the labour productivity distribution. At the same time, the share of workers in the tradable services sector went up in all regions but more so in regions that were already in the upper half of the labour productivity distribution. Hence, the evolution of employment shares in the tradable services sector widened the labour productivity gap between regions while the opposite was true for the industrial sector.</t>
+  </si>
+  <si>
+    <t>In the Czech Republic, between 2001 and 2020, the share of workers in the industrial sector went down in all regions but more so in regions that used to be in the upper half of the labour productivity distribution.</t>
+  </si>
+  <si>
+    <t>Regions where the economic activity shifts towards tradable activities, such as industry and tradable services, tend to grow faster in terms of labour productivity. In the Czech Republic, between 2001 and 2020, the share of workers in the industrial sector went down in all regions but more so in regions that used to be in the upper half of the labour productivity distribution. At the same time, the share of workers in the tradable services sector went up in all regions but more so in regions that were already in the upper half of the labour productivity distribution. Hence, the evolution of employment shares in the tradable services sector widened the labour productivity gap between regions while the opposite was true for the industrial sector.</t>
+  </si>
+  <si>
+    <t>In the United Kingdom, between 2004 and 2020, the share of workers in the industrial sector went down in all regions, approximately by the same amount.</t>
+  </si>
+  <si>
+    <t>Regions where the economic activity shifts towards tradable activities, such as industry and tradable services, tend to grow faster in terms of labour productivity. In the United Kingdom, between 2004 and 2020, the share of workers in the industrial sector went down in all regions, approximately by the same amount. At the same time, the share of workers in the tradable services sector went up in all regions but more so in regions that used to be in the lower half of the labour productivity distribution. Hence, the evolution of employment shares in the tradable services sector reduced the labour productivity gap between regions.</t>
+  </si>
+  <si>
+    <t>In the United States, between 2001 and 2020, the share of workers in the industrial sector remained approximately stable across all regions.</t>
+  </si>
+  <si>
+    <t>Regions where the economic activity shifts towards tradable activities, such as industry and tradable services, tend to grow faster in terms of labour productivity. In the United States, between 2001 and 2020, the share of workers in the industrial sector remained approximately stable across all regions. At the same time, the share of workers in the tradable services sector went up in all regions, approximately by the same amount.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -443,30 +450,343 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +833,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2001</v>
       </c>
@@ -524,10 +844,10 @@
         <v>19.276123046875</v>
       </c>
       <c r="D2" s="1">
-        <v>9.227414131164551</v>
+        <v>9.2274141311645508</v>
       </c>
       <c r="E2" s="1">
-        <v>16.0047664642334</v>
+        <v>16.004766464233398</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -552,36 +872,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
       <c r="B3" s="1">
-        <v>17.79258346557617</v>
+        <v>17.792583465576168</v>
       </c>
       <c r="C3" s="1">
-        <v>13.04106712341309</v>
+        <v>13.041067123413089</v>
       </c>
       <c r="D3" s="1">
-        <v>12.57173824310303</v>
+        <v>12.571738243103029</v>
       </c>
       <c r="E3" s="1">
-        <v>22.61999893188477</v>
+        <v>22.619998931884769</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="1">
-        <v>-4.165035247802734</v>
+        <v>-4.1650352478027344</v>
       </c>
       <c r="H3" s="1">
         <v>3.344324111938477</v>
       </c>
       <c r="I3" s="1">
-        <v>-6.235055923461914</v>
+        <v>-6.2350559234619141</v>
       </c>
       <c r="J3" s="1">
-        <v>6.615232467651367</v>
+        <v>6.6152324676513672</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
@@ -600,18 +920,21 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -658,31 +981,31 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2001</v>
       </c>
       <c r="B2" s="1">
-        <v>28.74231719970703</v>
+        <v>28.742317199707031</v>
       </c>
       <c r="C2" s="1">
         <v>27.00307464599609</v>
       </c>
       <c r="D2" s="1">
-        <v>8.590485572814941</v>
+        <v>8.5904855728149414</v>
       </c>
       <c r="E2" s="1">
         <v>14.12425422668457</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
@@ -694,42 +1017,42 @@
         <v>18</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
       <c r="B3" s="1">
-        <v>25.25925636291504</v>
+        <v>25.259256362915039</v>
       </c>
       <c r="C3" s="1">
-        <v>22.4110164642334</v>
+        <v>22.411016464233398</v>
       </c>
       <c r="D3" s="1">
         <v>13.00241851806641</v>
       </c>
       <c r="E3" s="1">
-        <v>19.96699905395508</v>
+        <v>19.966999053955082</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G3" s="1">
-        <v>-3.483060836791992</v>
+        <v>-3.4830608367919922</v>
       </c>
       <c r="H3" s="1">
-        <v>4.411932945251465</v>
+        <v>4.4119329452514648</v>
       </c>
       <c r="I3" s="1">
-        <v>-4.592058181762695</v>
+        <v>-4.5920581817626953</v>
       </c>
       <c r="J3" s="1">
-        <v>5.842744827270508</v>
+        <v>5.8427448272705078</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="L3" t="s">
         <v>14</v>
@@ -741,22 +1064,23 @@
         <v>18</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -803,105 +1127,106 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2001</v>
       </c>
       <c r="B2" s="1">
-        <v>36.25294494628906</v>
+        <v>36.252944946289063</v>
       </c>
       <c r="C2" s="1">
-        <v>21.60433578491211</v>
+        <v>21.604335784912109</v>
       </c>
       <c r="D2" s="1">
-        <v>5.616653442382813</v>
+        <v>5.6166534423828134</v>
       </c>
       <c r="E2" s="1">
-        <v>11.19783210754395</v>
+        <v>11.197832107543951</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s">
         <v>16</v>
       </c>
       <c r="N2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
       <c r="B3" s="1">
-        <v>32.40932846069336</v>
+        <v>32.409328460693359</v>
       </c>
       <c r="C3" s="1">
         <v>18.27646636962891</v>
       </c>
       <c r="D3" s="1">
-        <v>4.30872631072998</v>
+        <v>4.3087263107299796</v>
       </c>
       <c r="E3" s="1">
-        <v>17.72016143798828</v>
+        <v>17.720161437988281</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G3" s="1">
-        <v>-3.843616485595703</v>
+        <v>-3.8436164855957031</v>
       </c>
       <c r="H3" s="1">
         <v>-1.307927131652832</v>
       </c>
       <c r="I3" s="1">
-        <v>-3.327869415283203</v>
+        <v>-3.3278694152832031</v>
       </c>
       <c r="J3" s="1">
-        <v>6.522329330444336</v>
+        <v>6.5223293304443359</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M3" t="s">
         <v>16</v>
       </c>
       <c r="N3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -948,7 +1273,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2001</v>
       </c>
@@ -956,23 +1281,23 @@
         <v>31.4960823059082</v>
       </c>
       <c r="C2" s="1">
-        <v>25.76196670532227</v>
+        <v>25.761966705322269</v>
       </c>
       <c r="D2" s="1">
-        <v>5.697522163391113</v>
+        <v>5.6975221633911133</v>
       </c>
       <c r="E2" s="1">
-        <v>12.73973751068115</v>
+        <v>12.739737510681151</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
@@ -984,42 +1309,42 @@
         <v>18</v>
       </c>
       <c r="O2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
       <c r="B3" s="1">
-        <v>26.05311584472656</v>
+        <v>26.053115844726559</v>
       </c>
       <c r="C3" s="1">
         <v>18.72049713134766</v>
       </c>
       <c r="D3" s="1">
-        <v>9.808672904968262</v>
+        <v>9.8086729049682617</v>
       </c>
       <c r="E3" s="1">
         <v>21.15730094909668</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G3" s="1">
-        <v>-5.442966461181641</v>
+        <v>-5.4429664611816406</v>
       </c>
       <c r="H3" s="1">
-        <v>4.111150741577148</v>
+        <v>4.1111507415771484</v>
       </c>
       <c r="I3" s="1">
-        <v>-7.041469573974609</v>
+        <v>-7.0414695739746094</v>
       </c>
       <c r="J3" s="1">
-        <v>8.417563438415527</v>
+        <v>8.4175634384155273</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
         <v>14</v>
@@ -1031,22 +1356,23 @@
         <v>18</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1093,21 +1419,167 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2001</v>
       </c>
       <c r="B2" s="1">
-        <v>16.1960277557373</v>
+        <v>16.196027755737301</v>
       </c>
       <c r="C2" s="1">
-        <v>13.62106037139893</v>
+        <v>13.621060371398929</v>
       </c>
       <c r="D2" s="1">
         <v>13.33001232147217</v>
       </c>
       <c r="E2" s="1">
-        <v>22.15394973754883</v>
+        <v>22.153949737548832</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B3" s="1">
+        <v>12.67739677429199</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9.6153602600097656</v>
+      </c>
+      <c r="D3" s="1">
+        <v>16.304794311523441</v>
+      </c>
+      <c r="E3" s="1">
+        <v>25.105958938598629</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-3.5186309814453129</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.97478199005127</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-4.0057001113891602</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2.9520092010498051</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B2" s="1">
+        <v>16.264694213867191</v>
+      </c>
+      <c r="C2" s="1">
+        <v>23.169437408447269</v>
+      </c>
+      <c r="D2" s="1">
+        <v>11.59556198120117</v>
+      </c>
+      <c r="E2" s="1">
+        <v>17.118408203125</v>
       </c>
       <c r="F2" t="s">
         <v>61</v>
@@ -1126,42 +1598,42 @@
         <v>16</v>
       </c>
       <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
         <v>63</v>
       </c>
-      <c r="O2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
       <c r="B3" s="1">
-        <v>12.67739677429199</v>
+        <v>13.39851665496826</v>
       </c>
       <c r="C3" s="1">
-        <v>9.615360260009766</v>
+        <v>18.673139572143551</v>
       </c>
       <c r="D3" s="1">
-        <v>16.30479431152344</v>
+        <v>14.433780670166019</v>
       </c>
       <c r="E3" s="1">
-        <v>25.10595893859863</v>
+        <v>20.383005142211911</v>
       </c>
       <c r="F3" t="s">
         <v>61</v>
       </c>
       <c r="G3" s="1">
-        <v>-3.518630981445313</v>
+        <v>-2.8661775588989258</v>
       </c>
       <c r="H3" s="1">
-        <v>2.97478199005127</v>
+        <v>2.8382186889648442</v>
       </c>
       <c r="I3" s="1">
-        <v>-4.00570011138916</v>
+        <v>-4.4962978363037109</v>
       </c>
       <c r="J3" s="1">
-        <v>2.952009201049805</v>
+        <v>3.2645969390869141</v>
       </c>
       <c r="K3" t="s">
         <v>62</v>
@@ -1173,25 +1645,26 @@
         <v>16</v>
       </c>
       <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="O3" t="s">
-        <v>64</v>
-      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1238,105 +1711,106 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2001</v>
       </c>
       <c r="B2" s="1">
-        <v>16.26469421386719</v>
+        <v>23.35958099365234</v>
       </c>
       <c r="C2" s="1">
-        <v>23.16943740844727</v>
+        <v>16.204986572265629</v>
       </c>
       <c r="D2" s="1">
-        <v>11.59556198120117</v>
+        <v>11.023622512817379</v>
       </c>
       <c r="E2" s="1">
-        <v>17.118408203125</v>
+        <v>19.082794189453129</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
         <v>66</v>
       </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
       <c r="B3" s="1">
-        <v>13.39851665496826</v>
+        <v>17.244157791137699</v>
       </c>
       <c r="C3" s="1">
-        <v>18.67313957214355</v>
+        <v>10.95854568481445</v>
       </c>
       <c r="D3" s="1">
-        <v>14.43378067016602</v>
+        <v>14.020951271057131</v>
       </c>
       <c r="E3" s="1">
-        <v>20.38300514221191</v>
+        <v>22.910945892333981</v>
       </c>
       <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-6.1154232025146484</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.9973287582397461</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-5.2464408874511719</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3.8281517028808589</v>
+      </c>
+      <c r="K3" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="1">
-        <v>-2.866177558898926</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2.838218688964844</v>
-      </c>
-      <c r="I3" s="1">
-        <v>-4.496297836303711</v>
-      </c>
-      <c r="J3" s="1">
-        <v>3.264596939086914</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
         <v>66</v>
       </c>
-      <c r="L3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>67</v>
-      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1383,31 +1857,31 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2001</v>
       </c>
       <c r="B2" s="1">
-        <v>23.35958099365234</v>
+        <v>17.381345748901371</v>
       </c>
       <c r="C2" s="1">
-        <v>16.20498657226563</v>
+        <v>16.46433258056641</v>
       </c>
       <c r="D2" s="1">
-        <v>11.02362251281738</v>
+        <v>13.405013084411619</v>
       </c>
       <c r="E2" s="1">
-        <v>19.08279418945313</v>
+        <v>21.395658493041989</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
@@ -1416,45 +1890,45 @@
         <v>16</v>
       </c>
       <c r="N2" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="O2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
       <c r="B3" s="1">
-        <v>17.2441577911377</v>
+        <v>12.91833591461182</v>
       </c>
       <c r="C3" s="1">
-        <v>10.95854568481445</v>
+        <v>11.170571327209471</v>
       </c>
       <c r="D3" s="1">
-        <v>14.02095127105713</v>
+        <v>18.00327301025391</v>
       </c>
       <c r="E3" s="1">
-        <v>22.91094589233398</v>
+        <v>27.40189170837402</v>
       </c>
       <c r="F3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-4.4630098342895508</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4.5982599258422852</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-5.2937612533569336</v>
+      </c>
+      <c r="J3" s="1">
+        <v>6.0062332153320313</v>
+      </c>
+      <c r="K3" t="s">
         <v>68</v>
-      </c>
-      <c r="G3" s="1">
-        <v>-6.115423202514648</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2.997328758239746</v>
-      </c>
-      <c r="I3" s="1">
-        <v>-5.246440887451172</v>
-      </c>
-      <c r="J3" s="1">
-        <v>3.828151702880859</v>
-      </c>
-      <c r="K3" t="s">
-        <v>69</v>
       </c>
       <c r="L3" t="s">
         <v>14</v>
@@ -1463,25 +1937,174 @@
         <v>16</v>
       </c>
       <c r="N3" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="O3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B2" s="1">
+        <v>36.371761322021477</v>
+      </c>
+      <c r="C2" s="1">
+        <v>27.329875946044918</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8.4599342346191406</v>
+      </c>
+      <c r="E2" s="1">
+        <v>14.238566398620611</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B3" s="1">
+        <v>34.896705627441413</v>
+      </c>
+      <c r="C3" s="1">
+        <v>25.535764694213871</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10.078168869018549</v>
+      </c>
+      <c r="E3" s="1">
+        <v>17.854160308837891</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-1.4750556945800779</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.6182346343994141</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-1.7941112518310549</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3.6155939102172852</v>
+      </c>
+      <c r="K3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1528,21 +2151,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2001</v>
       </c>
       <c r="B2" s="1">
-        <v>17.38134574890137</v>
+        <v>32.902278900146477</v>
       </c>
       <c r="C2" s="1">
-        <v>16.46433258056641</v>
+        <v>26.033382415771481</v>
       </c>
       <c r="D2" s="1">
-        <v>13.40501308441162</v>
+        <v>10.26864051818848</v>
       </c>
       <c r="E2" s="1">
-        <v>21.39565849304199</v>
+        <v>16.091720581054691</v>
       </c>
       <c r="F2" t="s">
         <v>71</v>
@@ -1567,36 +2190,36 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
       <c r="B3" s="1">
-        <v>12.91833591461182</v>
+        <v>27.471773147583011</v>
       </c>
       <c r="C3" s="1">
-        <v>11.17057132720947</v>
+        <v>20.337795257568359</v>
       </c>
       <c r="D3" s="1">
-        <v>18.00327301025391</v>
+        <v>13.34420967102051</v>
       </c>
       <c r="E3" s="1">
-        <v>27.40189170837402</v>
+        <v>21.568149566650391</v>
       </c>
       <c r="F3" t="s">
         <v>71</v>
       </c>
       <c r="G3" s="1">
-        <v>-4.463009834289551</v>
+        <v>-5.4305057525634766</v>
       </c>
       <c r="H3" s="1">
-        <v>4.598259925842285</v>
+        <v>3.0755691528320308</v>
       </c>
       <c r="I3" s="1">
-        <v>-5.293761253356934</v>
+        <v>-5.695587158203125</v>
       </c>
       <c r="J3" s="1">
-        <v>6.006233215332031</v>
+        <v>5.4764289855957031</v>
       </c>
       <c r="K3" t="s">
         <v>72</v>
@@ -1615,18 +2238,19 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1673,21 +2297,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2001</v>
       </c>
       <c r="B2" s="1">
-        <v>36.37176132202148</v>
+        <v>17.095708847045898</v>
       </c>
       <c r="C2" s="1">
-        <v>27.32987594604492</v>
+        <v>14.505331039428709</v>
       </c>
       <c r="D2" s="1">
-        <v>8.459934234619141</v>
+        <v>10.561056137084959</v>
       </c>
       <c r="E2" s="1">
-        <v>14.23856639862061</v>
+        <v>17.480783462524411</v>
       </c>
       <c r="F2" t="s">
         <v>74</v>
@@ -1700,78 +2324,79 @@
         <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="M2" t="s">
         <v>16</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="O2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
       <c r="B3" s="1">
-        <v>34.89670562744141</v>
+        <v>12.14521408081055</v>
       </c>
       <c r="C3" s="1">
-        <v>25.53576469421387</v>
+        <v>10.222421646118161</v>
       </c>
       <c r="D3" s="1">
-        <v>10.07816886901855</v>
+        <v>13.729372978210449</v>
       </c>
       <c r="E3" s="1">
-        <v>17.85416030883789</v>
+        <v>20.624578475952148</v>
       </c>
       <c r="F3" t="s">
         <v>74</v>
       </c>
       <c r="G3" s="1">
-        <v>-1.475055694580078</v>
+        <v>-4.9504947662353516</v>
       </c>
       <c r="H3" s="1">
-        <v>1.618234634399414</v>
+        <v>3.1683168411254878</v>
       </c>
       <c r="I3" s="1">
-        <v>-1.794111251831055</v>
+        <v>-4.2829093933105469</v>
       </c>
       <c r="J3" s="1">
-        <v>3.615593910217285</v>
+        <v>3.1437950134277339</v>
       </c>
       <c r="K3" t="s">
         <v>75</v>
       </c>
       <c r="L3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
         <v>16</v>
       </c>
       <c r="N3" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="O3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1818,311 +2443,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2001</v>
       </c>
       <c r="B2" s="1">
-        <v>32.90227890014648</v>
+        <v>25.915525436401371</v>
       </c>
       <c r="C2" s="1">
-        <v>26.03338241577148</v>
+        <v>18.597225189208981</v>
       </c>
       <c r="D2" s="1">
-        <v>10.26864051818848</v>
+        <v>4.5032353401184082</v>
       </c>
       <c r="E2" s="1">
-        <v>16.09172058105469</v>
-      </c>
-      <c r="F2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B3" s="1">
-        <v>27.47177314758301</v>
-      </c>
-      <c r="C3" s="1">
-        <v>20.33779525756836</v>
-      </c>
-      <c r="D3" s="1">
-        <v>13.34420967102051</v>
-      </c>
-      <c r="E3" s="1">
-        <v>21.56814956665039</v>
-      </c>
-      <c r="F3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="1">
-        <v>-5.430505752563477</v>
-      </c>
-      <c r="H3" s="1">
-        <v>3.075569152832031</v>
-      </c>
-      <c r="I3" s="1">
-        <v>-5.695587158203125</v>
-      </c>
-      <c r="J3" s="1">
-        <v>5.476428985595703</v>
-      </c>
-      <c r="K3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B2" s="1">
-        <v>17.0957088470459</v>
-      </c>
-      <c r="C2" s="1">
-        <v>14.50533103942871</v>
-      </c>
-      <c r="D2" s="1">
-        <v>10.56105613708496</v>
-      </c>
-      <c r="E2" s="1">
-        <v>17.48078346252441</v>
-      </c>
-      <c r="F2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B3" s="1">
-        <v>12.14521408081055</v>
-      </c>
-      <c r="C3" s="1">
-        <v>10.22242164611816</v>
-      </c>
-      <c r="D3" s="1">
-        <v>13.72937297821045</v>
-      </c>
-      <c r="E3" s="1">
-        <v>20.62457847595215</v>
-      </c>
-      <c r="F3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="1">
-        <v>-4.950494766235352</v>
-      </c>
-      <c r="H3" s="1">
-        <v>3.168316841125488</v>
-      </c>
-      <c r="I3" s="1">
-        <v>-4.282909393310547</v>
-      </c>
-      <c r="J3" s="1">
-        <v>3.143795013427734</v>
-      </c>
-      <c r="K3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" t="s">
-        <v>82</v>
-      </c>
-      <c r="O3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B2" s="1">
-        <v>25.91552543640137</v>
-      </c>
-      <c r="C2" s="1">
-        <v>18.59722518920898</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4.503235340118408</v>
-      </c>
-      <c r="E2" s="1">
-        <v>13.46036815643311</v>
+        <v>13.460368156433111</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -2147,7 +2482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
@@ -2155,13 +2490,13 @@
         <v>22.90828704833984</v>
       </c>
       <c r="C3" s="1">
-        <v>14.24672508239746</v>
+        <v>14.246725082397459</v>
       </c>
       <c r="D3" s="1">
-        <v>7.921618938446045</v>
+        <v>7.9216189384460449</v>
       </c>
       <c r="E3" s="1">
-        <v>20.09567451477051</v>
+        <v>20.095674514770511</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -2170,13 +2505,13 @@
         <v>-3.007238388061523</v>
       </c>
       <c r="H3" s="1">
-        <v>3.418383598327637</v>
+        <v>3.4183835983276372</v>
       </c>
       <c r="I3" s="1">
-        <v>-4.350500106811523</v>
+        <v>-4.3505001068115234</v>
       </c>
       <c r="J3" s="1">
-        <v>6.635306358337402</v>
+        <v>6.6353063583374023</v>
       </c>
       <c r="K3" t="s">
         <v>22</v>
@@ -2195,18 +2530,19 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2253,31 +2589,31 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2001</v>
       </c>
       <c r="B2" s="1">
-        <v>19.59963989257813</v>
+        <v>19.599639892578129</v>
       </c>
       <c r="C2" s="1">
-        <v>20.21154975891113</v>
+        <v>20.211549758911129</v>
       </c>
       <c r="D2" s="1">
-        <v>3.57041072845459</v>
+        <v>3.5704107284545898</v>
       </c>
       <c r="E2" s="1">
         <v>7.948699951171875</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
@@ -2289,42 +2625,42 @@
         <v>18</v>
       </c>
       <c r="O2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
       <c r="B3" s="1">
-        <v>21.6214656829834</v>
+        <v>21.621465682983398</v>
       </c>
       <c r="C3" s="1">
-        <v>16.89494323730469</v>
+        <v>16.894943237304691</v>
       </c>
       <c r="D3" s="1">
         <v>5.356081485748291</v>
       </c>
       <c r="E3" s="1">
-        <v>16.85427474975586</v>
+        <v>16.854274749755859</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G3" s="1">
         <v>2.021825790405273</v>
       </c>
       <c r="H3" s="1">
-        <v>1.785670757293701</v>
+        <v>1.7856707572937009</v>
       </c>
       <c r="I3" s="1">
-        <v>-3.316606521606445</v>
+        <v>-3.3166065216064449</v>
       </c>
       <c r="J3" s="1">
-        <v>8.905574798583984</v>
+        <v>8.9055747985839844</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L3" t="s">
         <v>14</v>
@@ -2336,22 +2672,171 @@
         <v>18</v>
       </c>
       <c r="O3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B2" s="1">
+        <v>15.268110275268549</v>
+      </c>
+      <c r="C2" s="1">
+        <v>13.71821975708008</v>
+      </c>
+      <c r="D2" s="1">
+        <v>37.16265869140625</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44.878566741943359</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B3" s="1">
+        <v>11.449099540710449</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9.9699382781982422</v>
+      </c>
+      <c r="D3" s="1">
+        <v>40.028594970703132</v>
+      </c>
+      <c r="E3" s="1">
+        <v>46.552001953125</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-3.819010734558105</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.865936279296875</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-3.7482814788818359</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1.6734352111816411</v>
+      </c>
+      <c r="K3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2398,21 +2883,167 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="B2" s="1">
-        <v>15.26811027526855</v>
+        <v>20.536252975463871</v>
       </c>
       <c r="C2" s="1">
-        <v>13.71821975708008</v>
+        <v>25.039413452148441</v>
       </c>
       <c r="D2" s="1">
-        <v>37.16265869140625</v>
+        <v>23.585491180419918</v>
       </c>
       <c r="E2" s="1">
-        <v>44.87856674194336</v>
+        <v>40.006404876708977</v>
+      </c>
+      <c r="F2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B3" s="1">
+        <v>24.7358512878418</v>
+      </c>
+      <c r="C3" s="1">
+        <v>23.244258880615231</v>
+      </c>
+      <c r="D3" s="1">
+        <v>27.47050857543945</v>
+      </c>
+      <c r="E3" s="1">
+        <v>39.873252868652337</v>
+      </c>
+      <c r="F3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4.1995983123779297</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3.8850173950195308</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-1.7951545715332029</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-0.1331520080566406</v>
+      </c>
+      <c r="K3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B2" s="1">
+        <v>13.944553375244141</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12.207633018493651</v>
+      </c>
+      <c r="D2" s="1">
+        <v>16.840511322021481</v>
+      </c>
+      <c r="E2" s="1">
+        <v>19.370624542236332</v>
       </c>
       <c r="F2" t="s">
         <v>87</v>
@@ -2425,78 +3056,79 @@
         <v>88</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M2" t="s">
         <v>16</v>
       </c>
       <c r="N2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" t="s">
         <v>89</v>
       </c>
-      <c r="O2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
       <c r="B3" s="1">
-        <v>11.44909954071045</v>
+        <v>10.22699546813965</v>
       </c>
       <c r="C3" s="1">
-        <v>9.969938278198242</v>
+        <v>9.6576375961303711</v>
       </c>
       <c r="D3" s="1">
-        <v>40.02859497070313</v>
+        <v>18.287139892578129</v>
       </c>
       <c r="E3" s="1">
-        <v>46.552001953125</v>
+        <v>20.450895309448239</v>
       </c>
       <c r="F3" t="s">
         <v>87</v>
       </c>
       <c r="G3" s="1">
-        <v>-3.819010734558105</v>
+        <v>-3.7175579071044922</v>
       </c>
       <c r="H3" s="1">
-        <v>2.865936279296875</v>
+        <v>1.4466285705566411</v>
       </c>
       <c r="I3" s="1">
-        <v>-3.748281478881836</v>
+        <v>-2.5499954223632808</v>
       </c>
       <c r="J3" s="1">
-        <v>1.673435211181641</v>
+        <v>1.0802707672119141</v>
       </c>
       <c r="K3" t="s">
         <v>88</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
         <v>16</v>
       </c>
       <c r="N3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" t="s">
         <v>89</v>
       </c>
-      <c r="O3" t="s">
-        <v>90</v>
-      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2543,105 +3175,106 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2001</v>
       </c>
       <c r="B2" s="1">
-        <v>20.53625297546387</v>
+        <v>17.400882720947269</v>
       </c>
       <c r="C2" s="1">
-        <v>25.03941345214844</v>
+        <v>16.607717514038089</v>
       </c>
       <c r="D2" s="1">
-        <v>23.58549118041992</v>
+        <v>17.12575531005859</v>
       </c>
       <c r="E2" s="1">
-        <v>40.00640487670898</v>
+        <v>20.536186218261719</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
         <v>92</v>
       </c>
-      <c r="L2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
       <c r="B3" s="1">
-        <v>24.7358512878418</v>
+        <v>11.949262619018549</v>
       </c>
       <c r="C3" s="1">
-        <v>23.24425888061523</v>
+        <v>11.05019474029541</v>
       </c>
       <c r="D3" s="1">
-        <v>27.47050857543945</v>
+        <v>19.137384414672852</v>
       </c>
       <c r="E3" s="1">
-        <v>39.87325286865234</v>
+        <v>22.371852874755859</v>
       </c>
       <c r="F3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-5.4516201019287109</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.0116291046142578</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-5.5575227737426758</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1.8356666564941411</v>
+      </c>
+      <c r="K3" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="1">
-        <v>4.19959831237793</v>
-      </c>
-      <c r="H3" s="1">
-        <v>3.885017395019531</v>
-      </c>
-      <c r="I3" s="1">
-        <v>-1.795154571533203</v>
-      </c>
-      <c r="J3" s="1">
-        <v>-0.1331520080566406</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
         <v>92</v>
       </c>
-      <c r="L3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2688,105 +3321,106 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>2002</v>
+        <v>2013</v>
       </c>
       <c r="B2" s="1">
-        <v>13.94455337524414</v>
+        <v>14.657139778137211</v>
       </c>
       <c r="C2" s="1">
-        <v>12.20763301849365</v>
+        <v>15.85504150390625</v>
       </c>
       <c r="D2" s="1">
-        <v>16.84051132202148</v>
+        <v>5.8136811256408691</v>
       </c>
       <c r="E2" s="1">
-        <v>19.37062454223633</v>
+        <v>13.526035308837891</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
         <v>96</v>
       </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
       <c r="B3" s="1">
-        <v>10.22699546813965</v>
+        <v>13.663338661193849</v>
       </c>
       <c r="C3" s="1">
-        <v>9.657637596130371</v>
+        <v>13.905356407165529</v>
       </c>
       <c r="D3" s="1">
-        <v>18.28713989257813</v>
+        <v>6.2273330688476563</v>
       </c>
       <c r="E3" s="1">
-        <v>20.45089530944824</v>
+        <v>13.93313503265381</v>
       </c>
       <c r="F3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-0.99380111694335938</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.41365194320678711</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-1.9496850967407231</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.40709972381591802</v>
+      </c>
+      <c r="K3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="1">
-        <v>-3.717557907104492</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1.446628570556641</v>
-      </c>
-      <c r="I3" s="1">
-        <v>-2.549995422363281</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1.080270767211914</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
         <v>96</v>
       </c>
-      <c r="L3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" t="s">
-        <v>82</v>
-      </c>
-      <c r="O3" t="s">
-        <v>97</v>
-      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2833,105 +3467,106 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2001</v>
       </c>
       <c r="B2" s="1">
-        <v>17.40088272094727</v>
+        <v>19.168609619140629</v>
       </c>
       <c r="C2" s="1">
-        <v>16.60771751403809</v>
+        <v>17.56740570068359</v>
       </c>
       <c r="D2" s="1">
-        <v>17.12575531005859</v>
+        <v>9.1202936172485352</v>
       </c>
       <c r="E2" s="1">
-        <v>20.53618621826172</v>
+        <v>17.28837966918945</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
         <v>99</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" t="s">
-        <v>35</v>
       </c>
       <c r="O2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
       <c r="B3" s="1">
-        <v>11.94926261901855</v>
+        <v>14.66548442840576</v>
       </c>
       <c r="C3" s="1">
-        <v>11.05019474029541</v>
+        <v>12.335403442382811</v>
       </c>
       <c r="D3" s="1">
-        <v>19.13738441467285</v>
+        <v>14.07547760009766</v>
       </c>
       <c r="E3" s="1">
-        <v>22.37185287475586</v>
+        <v>22.876615524291989</v>
       </c>
       <c r="F3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-4.5031251907348633</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4.9551839828491211</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-5.2320022583007813</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5.5882358551025391</v>
+      </c>
+      <c r="K3" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="1">
-        <v>-5.451620101928711</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2.011629104614258</v>
-      </c>
-      <c r="I3" s="1">
-        <v>-5.557522773742676</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1.835666656494141</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
         <v>99</v>
-      </c>
-      <c r="L3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" t="s">
-        <v>35</v>
       </c>
       <c r="O3" t="s">
         <v>100</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2978,21 +3613,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="B2" s="1">
-        <v>14.65713977813721</v>
+        <v>16.66228103637695</v>
       </c>
       <c r="C2" s="1">
-        <v>15.85504150390625</v>
+        <v>19.464723587036129</v>
       </c>
       <c r="D2" s="1">
-        <v>5.813681125640869</v>
+        <v>4.7647304534912109</v>
       </c>
       <c r="E2" s="1">
-        <v>13.52603530883789</v>
+        <v>8.036982536315918</v>
       </c>
       <c r="F2" t="s">
         <v>101</v>
@@ -3005,78 +3640,79 @@
         <v>102</v>
       </c>
       <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O2" t="s">
         <v>103</v>
       </c>
-      <c r="M2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
       <c r="B3" s="1">
-        <v>13.66333866119385</v>
+        <v>16.293272018432621</v>
       </c>
       <c r="C3" s="1">
-        <v>13.90535640716553</v>
+        <v>19.942941665649411</v>
       </c>
       <c r="D3" s="1">
-        <v>6.227333068847656</v>
+        <v>5.9504704475402832</v>
       </c>
       <c r="E3" s="1">
-        <v>13.93313503265381</v>
+        <v>9.8691797256469727</v>
       </c>
       <c r="F3" t="s">
         <v>101</v>
       </c>
       <c r="G3" s="1">
-        <v>-0.9938011169433594</v>
+        <v>-0.36900901794433588</v>
       </c>
       <c r="H3" s="1">
-        <v>0.4136519432067871</v>
+        <v>1.185739994049072</v>
       </c>
       <c r="I3" s="1">
-        <v>-1.949685096740723</v>
+        <v>0.47821807861328131</v>
       </c>
       <c r="J3" s="1">
-        <v>0.407099723815918</v>
+        <v>1.8321971893310549</v>
       </c>
       <c r="K3" t="s">
         <v>102</v>
       </c>
       <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O3" t="s">
         <v>103</v>
       </c>
-      <c r="M3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>104</v>
-      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3123,105 +3759,106 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="B2" s="1">
-        <v>19.16860961914063</v>
+        <v>10.365556716918951</v>
       </c>
       <c r="C2" s="1">
-        <v>17.56740570068359</v>
+        <v>12.838292121887211</v>
       </c>
       <c r="D2" s="1">
-        <v>9.120293617248535</v>
+        <v>10.97481727600098</v>
       </c>
       <c r="E2" s="1">
-        <v>17.28837966918945</v>
+        <v>17.360931396484379</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
         <v>106</v>
       </c>
-      <c r="L2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" t="s">
-        <v>107</v>
-      </c>
-      <c r="O2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
       <c r="B3" s="1">
-        <v>14.66548442840576</v>
+        <v>9.6767082214355469</v>
       </c>
       <c r="C3" s="1">
-        <v>12.33540344238281</v>
+        <v>11.01858425140381</v>
       </c>
       <c r="D3" s="1">
-        <v>14.07547760009766</v>
+        <v>11.96914005279541</v>
       </c>
       <c r="E3" s="1">
-        <v>22.87661552429199</v>
+        <v>17.904022216796879</v>
       </c>
       <c r="F3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-0.68884849548339844</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.99432277679443359</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-1.819707870483398</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.5430908203125</v>
+      </c>
+      <c r="K3" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="1">
-        <v>-4.503125190734863</v>
-      </c>
-      <c r="H3" s="1">
-        <v>4.955183982849121</v>
-      </c>
-      <c r="I3" s="1">
-        <v>-5.232002258300781</v>
-      </c>
-      <c r="J3" s="1">
-        <v>5.588235855102539</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
         <v>106</v>
       </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" t="s">
-        <v>107</v>
-      </c>
-      <c r="O3" t="s">
-        <v>108</v>
-      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3268,105 +3905,106 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="B2" s="1">
-        <v>16.66228103637695</v>
+        <v>18.547592163085941</v>
       </c>
       <c r="C2" s="1">
-        <v>19.46472358703613</v>
+        <v>12.62360858917236</v>
       </c>
       <c r="D2" s="1">
-        <v>4.764730453491211</v>
+        <v>18.554006576538089</v>
       </c>
       <c r="E2" s="1">
-        <v>8.036982536315918</v>
+        <v>27.440458297729489</v>
       </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="M2" t="s">
         <v>16</v>
       </c>
       <c r="N2" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="O2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
       <c r="B3" s="1">
-        <v>16.29327201843262</v>
+        <v>16.964569091796879</v>
       </c>
       <c r="C3" s="1">
-        <v>19.94294166564941</v>
+        <v>11.09406089782715</v>
       </c>
       <c r="D3" s="1">
-        <v>5.950470447540283</v>
+        <v>19.587936401367191</v>
       </c>
       <c r="E3" s="1">
-        <v>9.869179725646973</v>
+        <v>28.475996017456051</v>
       </c>
       <c r="F3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-1.5830230712890629</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.033929824829102</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-1.5295476913452151</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1.0355377197265629</v>
+      </c>
+      <c r="K3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
         <v>109</v>
       </c>
-      <c r="G3" s="1">
-        <v>-0.3690090179443359</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1.185739994049072</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.4782180786132813</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1.832197189331055</v>
-      </c>
-      <c r="K3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" t="s">
-        <v>107</v>
-      </c>
-      <c r="O3" t="s">
-        <v>111</v>
-      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3413,302 +4051,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B2" s="1">
-        <v>10.36555671691895</v>
-      </c>
-      <c r="C2" s="1">
-        <v>12.83829212188721</v>
-      </c>
-      <c r="D2" s="1">
-        <v>10.97481727600098</v>
-      </c>
-      <c r="E2" s="1">
-        <v>17.36093139648438</v>
-      </c>
-      <c r="F2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" t="s">
-        <v>113</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B3" s="1">
-        <v>9.676708221435547</v>
-      </c>
-      <c r="C3" s="1">
-        <v>11.01858425140381</v>
-      </c>
-      <c r="D3" s="1">
-        <v>11.96914005279541</v>
-      </c>
-      <c r="E3" s="1">
-        <v>17.90402221679688</v>
-      </c>
-      <c r="F3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G3" s="1">
-        <v>-0.6888484954833984</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.9943227767944336</v>
-      </c>
-      <c r="I3" s="1">
-        <v>-1.819707870483398</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.5430908203125</v>
-      </c>
-      <c r="K3" t="s">
-        <v>113</v>
-      </c>
-      <c r="L3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B2" s="1">
-        <v>18.54759216308594</v>
-      </c>
-      <c r="C2" s="1">
-        <v>12.62360858917236</v>
-      </c>
-      <c r="D2" s="1">
-        <v>18.55400657653809</v>
-      </c>
-      <c r="E2" s="1">
-        <v>27.44045829772949</v>
-      </c>
-      <c r="F2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B3" s="1">
-        <v>16.96456909179688</v>
-      </c>
-      <c r="C3" s="1">
-        <v>11.09406089782715</v>
-      </c>
-      <c r="D3" s="1">
-        <v>19.58793640136719</v>
-      </c>
-      <c r="E3" s="1">
-        <v>28.47599601745605</v>
-      </c>
-      <c r="F3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" s="1">
-        <v>-1.583023071289063</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1.033929824829102</v>
-      </c>
-      <c r="I3" s="1">
-        <v>-1.529547691345215</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1.035537719726563</v>
-      </c>
-      <c r="K3" t="s">
-        <v>116</v>
-      </c>
-      <c r="L3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2001</v>
       </c>
       <c r="B2" s="1">
-        <v>23.14849472045898</v>
+        <v>23.148494720458981</v>
       </c>
       <c r="C2" s="1">
         <v>27.6319694519043</v>
@@ -3717,7 +4065,7 @@
         <v>11.47294998168945</v>
       </c>
       <c r="E2" s="1">
-        <v>13.5594654083252</v>
+        <v>13.559465408325201</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -3742,12 +4090,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2019</v>
       </c>
       <c r="B3" s="1">
-        <v>12.08385372161865</v>
+        <v>12.083853721618651</v>
       </c>
       <c r="C3" s="1">
         <v>10.42753791809082</v>
@@ -3771,7 +4119,7 @@
         <v>-17.20443153381348</v>
       </c>
       <c r="J3" s="1">
-        <v>8.368902206420898</v>
+        <v>8.3689022064208984</v>
       </c>
       <c r="K3" t="s">
         <v>25</v>
@@ -3790,18 +4138,19 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3848,7 +4197,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2009</v>
       </c>
@@ -3856,23 +4205,23 @@
         <v>12.85712146759033</v>
       </c>
       <c r="C2" s="1">
-        <v>23.18943405151367</v>
+        <v>23.189434051513668</v>
       </c>
       <c r="D2" s="1">
-        <v>4.252398490905762</v>
+        <v>4.2523984909057617</v>
       </c>
       <c r="E2" s="1">
         <v>9.034184455871582</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
@@ -3884,10 +4233,10 @@
         <v>18</v>
       </c>
       <c r="O2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
@@ -3895,31 +4244,31 @@
         <v>14.4395809173584</v>
       </c>
       <c r="C3" s="1">
-        <v>22.78116798400879</v>
+        <v>22.781167984008789</v>
       </c>
       <c r="D3" s="1">
-        <v>4.999423980712891</v>
+        <v>4.9994239807128906</v>
       </c>
       <c r="E3" s="1">
         <v>11.71564865112305</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G3" s="1">
         <v>1.582459449768066</v>
       </c>
       <c r="H3" s="1">
-        <v>0.7470254898071289</v>
+        <v>0.74702548980712891</v>
       </c>
       <c r="I3" s="1">
-        <v>-0.4082660675048828</v>
+        <v>-0.40826606750488281</v>
       </c>
       <c r="J3" s="1">
-        <v>2.681464195251465</v>
+        <v>2.6814641952514648</v>
       </c>
       <c r="K3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="L3" t="s">
         <v>14</v>
@@ -3931,22 +4280,25 @@
         <v>18</v>
       </c>
       <c r="O3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3993,24 +4345,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2001</v>
       </c>
       <c r="B2" s="1">
-        <v>6.544341087341309</v>
+        <v>6.5443410873413086</v>
       </c>
       <c r="C2" s="1">
-        <v>6.382701396942139</v>
+        <v>6.3827013969421387</v>
       </c>
       <c r="D2" s="1">
         <v>12.24405479431152</v>
       </c>
       <c r="E2" s="1">
-        <v>15.85723686218262</v>
+        <v>15.857236862182621</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -4026,21 +4378,21 @@
         <v>16</v>
       </c>
       <c r="N2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
       <c r="B3" s="1">
-        <v>6.608212471008301</v>
+        <v>6.6082124710083008</v>
       </c>
       <c r="C3" s="1">
-        <v>6.719966411590576</v>
+        <v>6.7199664115905762</v>
       </c>
       <c r="D3" s="1">
         <v>13.2157735824585</v>
@@ -4049,13 +4401,13 @@
         <v>16.59510612487793</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G3" s="1">
-        <v>0.06387138366699219</v>
+        <v>6.3871383666992188E-2</v>
       </c>
       <c r="H3" s="1">
-        <v>0.9717187881469727</v>
+        <v>0.97171878814697266</v>
       </c>
       <c r="I3" s="1">
         <v>0.3372650146484375</v>
@@ -4073,25 +4425,26 @@
         <v>16</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4138,7 +4491,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2001</v>
       </c>
@@ -4146,13 +4499,13 @@
         <v>22.08002853393555</v>
       </c>
       <c r="C2" s="1">
-        <v>17.57770156860352</v>
+        <v>17.577701568603519</v>
       </c>
       <c r="D2" s="1">
-        <v>33.64575958251953</v>
+        <v>33.645759582519531</v>
       </c>
       <c r="E2" s="1">
-        <v>45.82315444946289</v>
+        <v>45.823154449462891</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4177,27 +4530,27 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
       <c r="B3" s="1">
-        <v>21.7242488861084</v>
+        <v>21.724248886108398</v>
       </c>
       <c r="C3" s="1">
-        <v>14.50687026977539</v>
+        <v>14.506870269775391</v>
       </c>
       <c r="D3" s="1">
-        <v>36.73654937744141</v>
+        <v>36.736549377441413</v>
       </c>
       <c r="E3" s="1">
-        <v>47.89681243896484</v>
+        <v>47.896812438964837</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="1">
-        <v>-0.3557796478271484</v>
+        <v>-0.35577964782714838</v>
       </c>
       <c r="H3" s="1">
         <v>3.090789794921875</v>
@@ -4206,7 +4559,7 @@
         <v>-3.070831298828125</v>
       </c>
       <c r="J3" s="1">
-        <v>2.073657989501953</v>
+        <v>2.0736579895019531</v>
       </c>
       <c r="K3" t="s">
         <v>28</v>
@@ -4225,18 +4578,19 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4283,7 +4637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2001</v>
       </c>
@@ -4291,13 +4645,13 @@
         <v>15.60872840881348</v>
       </c>
       <c r="C2" s="1">
-        <v>18.46957778930664</v>
+        <v>18.469577789306641</v>
       </c>
       <c r="D2" s="1">
-        <v>36.06533050537109</v>
+        <v>36.065330505371087</v>
       </c>
       <c r="E2" s="1">
-        <v>41.9895133972168</v>
+        <v>41.989513397216797</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -4322,7 +4676,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
@@ -4330,28 +4684,28 @@
         <v>11.15636539459229</v>
       </c>
       <c r="C3" s="1">
-        <v>11.51741695404053</v>
+        <v>11.517416954040529</v>
       </c>
       <c r="D3" s="1">
-        <v>43.59764099121094</v>
+        <v>43.597640991210938</v>
       </c>
       <c r="E3" s="1">
-        <v>49.88680267333984</v>
+        <v>49.886802673339837</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="1">
-        <v>-4.452363014221191</v>
+        <v>-4.4523630142211914</v>
       </c>
       <c r="H3" s="1">
-        <v>7.532310485839844</v>
+        <v>7.5323104858398438</v>
       </c>
       <c r="I3" s="1">
-        <v>-6.952160835266113</v>
+        <v>-6.9521608352661133</v>
       </c>
       <c r="J3" s="1">
-        <v>7.897289276123047</v>
+        <v>7.8972892761230469</v>
       </c>
       <c r="K3" t="s">
         <v>33</v>
@@ -4370,18 +4724,21 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4428,7 +4785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2001</v>
       </c>
@@ -4436,13 +4793,13 @@
         <v>15.35305213928223</v>
       </c>
       <c r="C2" s="1">
-        <v>10.74371719360352</v>
+        <v>10.743717193603519</v>
       </c>
       <c r="D2" s="1">
-        <v>20.98527145385742</v>
+        <v>20.985271453857418</v>
       </c>
       <c r="E2" s="1">
-        <v>27.60734176635742</v>
+        <v>27.607341766357418</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -4452,7 +4809,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="L2" t="s">
         <v>29</v>
@@ -4461,24 +4818,24 @@
         <v>16</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
       <c r="B3" s="1">
-        <v>11.39093971252441</v>
+        <v>11.390939712524411</v>
       </c>
       <c r="C3" s="1">
-        <v>8.332345962524414</v>
+        <v>8.3323459625244141</v>
       </c>
       <c r="D3" s="1">
-        <v>23.33808898925781</v>
+        <v>23.338088989257809</v>
       </c>
       <c r="E3" s="1">
         <v>29.01621246337891</v>
@@ -4487,19 +4844,19 @@
         <v>37</v>
       </c>
       <c r="G3" s="1">
-        <v>-3.962112426757813</v>
+        <v>-3.9621124267578129</v>
       </c>
       <c r="H3" s="1">
-        <v>2.352817535400391</v>
+        <v>2.3528175354003911</v>
       </c>
       <c r="I3" s="1">
         <v>-2.411371231079102</v>
       </c>
       <c r="J3" s="1">
-        <v>1.408870697021484</v>
+        <v>1.4088706970214839</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="L3" t="s">
         <v>29</v>
@@ -4508,25 +4865,26 @@
         <v>16</v>
       </c>
       <c r="N3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4573,31 +4931,31 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2001</v>
       </c>
       <c r="B2" s="1">
-        <v>20.2040958404541</v>
+        <v>20.204095840454102</v>
       </c>
       <c r="C2" s="1">
-        <v>21.35574150085449</v>
+        <v>21.355741500854489</v>
       </c>
       <c r="D2" s="1">
-        <v>35.8088264465332</v>
+        <v>35.808826446533203</v>
       </c>
       <c r="E2" s="1">
-        <v>42.1661491394043</v>
+        <v>42.166149139404297</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L2" t="s">
         <v>34</v>
@@ -4609,10 +4967,10 @@
         <v>35</v>
       </c>
       <c r="O2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
@@ -4620,31 +4978,31 @@
         <v>20.05817794799805</v>
       </c>
       <c r="C3" s="1">
-        <v>17.8033275604248</v>
+        <v>17.803327560424801</v>
       </c>
       <c r="D3" s="1">
-        <v>37.53612518310547</v>
+        <v>37.536125183105469</v>
       </c>
       <c r="E3" s="1">
-        <v>44.30591583251953</v>
+        <v>44.305915832519531</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G3" s="1">
-        <v>-0.1459178924560547</v>
+        <v>-0.14591789245605469</v>
       </c>
       <c r="H3" s="1">
-        <v>1.727298736572266</v>
+        <v>1.7272987365722661</v>
       </c>
       <c r="I3" s="1">
-        <v>-3.552413940429688</v>
+        <v>-3.5524139404296879</v>
       </c>
       <c r="J3" s="1">
-        <v>2.139766693115234</v>
+        <v>2.1397666931152339</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L3" t="s">
         <v>34</v>
@@ -4656,22 +5014,23 @@
         <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4718,31 +5077,31 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2001</v>
       </c>
       <c r="B2" s="1">
-        <v>19.63568878173828</v>
+        <v>19.635688781738281</v>
       </c>
       <c r="C2" s="1">
-        <v>19.33800888061523</v>
+        <v>19.338008880615231</v>
       </c>
       <c r="D2" s="1">
-        <v>4.877257823944092</v>
+        <v>4.8772578239440918</v>
       </c>
       <c r="E2" s="1">
         <v>11.8415584564209</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
@@ -4754,27 +5113,27 @@
         <v>18</v>
       </c>
       <c r="O2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
       <c r="B3" s="1">
-        <v>18.53427124023438</v>
+        <v>18.534271240234379</v>
       </c>
       <c r="C3" s="1">
         <v>14.98527717590332</v>
       </c>
       <c r="D3" s="1">
-        <v>8.598594665527344</v>
+        <v>8.5985946655273438</v>
       </c>
       <c r="E3" s="1">
-        <v>19.32248306274414</v>
+        <v>19.322483062744141</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1">
         <v>-1.101417541503906</v>
@@ -4783,13 +5142,13 @@
         <v>3.721336841583252</v>
       </c>
       <c r="I3" s="1">
-        <v>-4.352731704711914</v>
+        <v>-4.3527317047119141</v>
       </c>
       <c r="J3" s="1">
-        <v>7.480924606323242</v>
+        <v>7.4809246063232422</v>
       </c>
       <c r="K3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s">
         <v>14</v>
@@ -4801,22 +5160,23 @@
         <v>18</v>
       </c>
       <c r="O3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4863,7 +5223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2001</v>
       </c>
@@ -4871,23 +5231,23 @@
         <v>9.20233154296875</v>
       </c>
       <c r="C2" s="1">
-        <v>13.84046173095703</v>
+        <v>13.840461730957029</v>
       </c>
       <c r="D2" s="1">
-        <v>6.025435924530029</v>
+        <v>6.0254359245300293</v>
       </c>
       <c r="E2" s="1">
-        <v>12.35898876190186</v>
+        <v>12.358988761901861</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
@@ -4899,27 +5259,27 @@
         <v>18</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
       <c r="B3" s="1">
-        <v>7.750954151153564</v>
+        <v>7.7509541511535636</v>
       </c>
       <c r="C3" s="1">
-        <v>9.615705490112305</v>
+        <v>9.6157054901123047</v>
       </c>
       <c r="D3" s="1">
-        <v>7.711776733398438</v>
+        <v>7.7117767333984384</v>
       </c>
       <c r="E3" s="1">
-        <v>15.42060279846191</v>
+        <v>15.420602798461911</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G3" s="1">
         <v>-1.451377391815186</v>
@@ -4928,13 +5288,13 @@
         <v>1.686340808868408</v>
       </c>
       <c r="I3" s="1">
-        <v>-4.224756240844727</v>
+        <v>-4.2247562408447266</v>
       </c>
       <c r="J3" s="1">
         <v>3.061614036560059</v>
       </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L3" t="s">
         <v>14</v>
@@ -4946,9 +5306,10 @@
         <v>18</v>
       </c>
       <c r="O3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>